--- a/static/5자료실.xlsx
+++ b/static/5자료실.xlsx
@@ -5,22 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="517" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="681">
-  <si>
-    <t>T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="680">
   <si>
     <t>B148t</t>
   </si>
@@ -2143,7 +2138,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2157,10 +2152,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2183,8 +2174,8 @@
   </sheetPr>
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z68" activeCellId="0" sqref="Z68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2258,49 +2249,47 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="U1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2365,40 +2354,40 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2463,40 +2452,40 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2561,40 +2550,40 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2659,40 +2648,40 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2757,40 +2746,40 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2855,40 +2844,40 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2953,40 +2942,40 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3051,40 +3040,40 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3149,40 +3138,40 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3201,7 +3190,7 @@
         <v>658.800285</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>658.800285</v>
@@ -3225,7 +3214,7 @@
         <v>658.8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>658.8</v>
@@ -3247,40 +3236,40 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3299,7 +3288,7 @@
         <v>658.54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>658.562</v>
@@ -3323,7 +3312,7 @@
         <v>658.78</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>658.8</v>
@@ -3345,40 +3334,40 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3443,40 +3432,40 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3541,40 +3530,40 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3639,40 +3628,40 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -3737,40 +3726,40 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3835,40 +3824,40 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -3933,40 +3922,40 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -4031,40 +4020,40 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -4129,40 +4118,40 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -4227,40 +4216,40 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4325,40 +4314,40 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -4377,7 +4366,7 @@
         <v>657.3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>657.20951</v>
@@ -4401,7 +4390,7 @@
         <v>657</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>657</v>
@@ -4423,40 +4412,40 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -4475,7 +4464,7 @@
         <v>650.1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>650.1</v>
@@ -4499,7 +4488,7 @@
         <v>651.3</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>651.73</v>
@@ -4521,40 +4510,40 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -4619,40 +4608,40 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -4717,40 +4706,40 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -4815,40 +4804,40 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -4913,40 +4902,40 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -5011,40 +5000,40 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -5109,40 +5098,40 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -5207,40 +5196,40 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -5305,40 +5294,40 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -5403,40 +5392,40 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -5501,40 +5490,40 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -5553,7 +5542,7 @@
         <v>628.164</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>628.161</v>
@@ -5577,7 +5566,7 @@
         <v>627.80952</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>627.8</v>
@@ -5595,7 +5584,7 @@
         <v>616.86</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q69" s="1" t="n">
         <v>616.8584</v>
@@ -5604,10 +5593,10 @@
         <v>616.858</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -5615,64 +5604,64 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="O70" s="1" t="s">
+      <c r="P70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="R70" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="S70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -5683,7 +5672,7 @@
         <v>624.252</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>625.1</v>
@@ -5707,7 +5696,7 @@
         <v>627.0724</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>627.12</v>
@@ -5725,7 +5714,7 @@
         <v>616.8900947</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q71" s="1" t="n">
         <v>616.8914</v>
@@ -5734,10 +5723,10 @@
         <v>616.8914</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
@@ -5745,64 +5734,64 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="S72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -5875,64 +5864,64 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="R74" s="1" t="s">
+      <c r="S74" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="S74" s="1" t="s">
+      <c r="T74" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -6005,64 +5994,64 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="Q76" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="S76" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
@@ -6135,64 +6124,64 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
@@ -6265,64 +6254,64 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="P80" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="Q80" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="R80" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="T80" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
@@ -6395,64 +6384,64 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M82" s="2" t="s">
+      <c r="N82" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="P82" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="Q82" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="R82" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="S82" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="S82" s="1" t="s">
+      <c r="T82" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
@@ -6504,19 +6493,19 @@
       <c r="O83" s="3" t="n">
         <v>620.00420285</v>
       </c>
-      <c r="P83" s="4" t="n">
+      <c r="P83" s="2" t="n">
         <v>620.0044</v>
       </c>
-      <c r="Q83" s="4" t="n">
+      <c r="Q83" s="2" t="n">
         <v>620.00452</v>
       </c>
-      <c r="R83" s="4" t="n">
+      <c r="R83" s="2" t="n">
         <v>620.00711</v>
       </c>
-      <c r="S83" s="4" t="n">
+      <c r="S83" s="2" t="n">
         <v>620.00973</v>
       </c>
-      <c r="T83" s="4" t="n">
+      <c r="T83" s="2" t="n">
         <v>620.1</v>
       </c>
       <c r="Y83" s="1"/>
@@ -6525,64 +6514,64 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="Q84" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="Q84" s="4" t="s">
+      <c r="R84" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="R84" s="4" t="s">
+      <c r="S84" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="S84" s="4" t="s">
+      <c r="T84" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="T84" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
@@ -6625,28 +6614,28 @@
       <c r="L85" s="1" t="n">
         <v>621.385</v>
       </c>
-      <c r="M85" s="4" t="n">
+      <c r="M85" s="2" t="n">
         <v>620.106</v>
       </c>
-      <c r="N85" s="4" t="n">
+      <c r="N85" s="2" t="n">
         <v>620.106</v>
       </c>
-      <c r="O85" s="4" t="n">
+      <c r="O85" s="2" t="n">
         <v>620.106</v>
       </c>
-      <c r="P85" s="4" t="n">
+      <c r="P85" s="2" t="n">
         <v>620.106</v>
       </c>
-      <c r="Q85" s="4" t="n">
+      <c r="Q85" s="2" t="n">
         <v>620.105</v>
       </c>
-      <c r="R85" s="4" t="n">
+      <c r="R85" s="2" t="n">
         <v>620.104</v>
       </c>
-      <c r="S85" s="4" t="n">
+      <c r="S85" s="2" t="n">
         <v>620.1</v>
       </c>
-      <c r="T85" s="4" t="n">
+      <c r="T85" s="2" t="n">
         <v>620.1</v>
       </c>
       <c r="Y85" s="1"/>
@@ -6655,64 +6644,64 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="N86" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="O86" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="O86" s="4" t="s">
+      <c r="P86" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="Q86" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="Q86" s="4" t="s">
+      <c r="R86" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="R86" s="4" t="s">
+      <c r="S86" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="S86" s="4" t="s">
+      <c r="T86" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="T86" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
@@ -6755,28 +6744,28 @@
       <c r="L87" s="1" t="n">
         <v>621.3848</v>
       </c>
-      <c r="M87" s="4" t="n">
+      <c r="M87" s="2" t="n">
         <v>620.1064</v>
       </c>
-      <c r="N87" s="4" t="n">
+      <c r="N87" s="2" t="n">
         <v>620.1064</v>
       </c>
-      <c r="O87" s="4" t="n">
+      <c r="O87" s="2" t="n">
         <v>620.11</v>
       </c>
-      <c r="P87" s="4" t="n">
+      <c r="P87" s="2" t="n">
         <v>620.11</v>
       </c>
-      <c r="Q87" s="4" t="n">
+      <c r="Q87" s="2" t="n">
         <v>620.11</v>
       </c>
-      <c r="R87" s="4" t="n">
+      <c r="R87" s="2" t="n">
         <v>620.11</v>
       </c>
-      <c r="S87" s="4" t="n">
+      <c r="S87" s="2" t="n">
         <v>620.11</v>
       </c>
-      <c r="T87" s="4" t="n">
+      <c r="T87" s="2" t="n">
         <v>620.11</v>
       </c>
       <c r="Y87" s="1"/>
@@ -6785,64 +6774,64 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="N88" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="O88" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="O88" s="4" t="s">
+      <c r="P88" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="P88" s="4" t="s">
+      <c r="Q88" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="Q88" s="4" t="s">
+      <c r="R88" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="R88" s="4" t="s">
+      <c r="S88" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="S88" s="4" t="s">
+      <c r="T88" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="T88" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
@@ -6885,25 +6874,25 @@
       <c r="L89" s="1" t="n">
         <v>621.381531</v>
       </c>
-      <c r="M89" s="4" t="n">
+      <c r="M89" s="2" t="n">
         <v>620.1126</v>
       </c>
-      <c r="N89" s="4" t="n">
+      <c r="N89" s="2" t="n">
         <v>620.1126</v>
       </c>
-      <c r="O89" s="4" t="n">
+      <c r="O89" s="2" t="n">
         <v>620.11233</v>
       </c>
-      <c r="P89" s="4" t="n">
+      <c r="P89" s="2" t="n">
         <v>620.1123</v>
       </c>
-      <c r="Q89" s="4" t="n">
+      <c r="Q89" s="2" t="n">
         <v>620.11223</v>
       </c>
-      <c r="R89" s="4" t="n">
+      <c r="R89" s="2" t="n">
         <v>620.112</v>
       </c>
-      <c r="S89" s="4" t="n">
+      <c r="S89" s="2" t="n">
         <v>628.112</v>
       </c>
       <c r="T89" s="3" t="n">
@@ -6915,64 +6904,64 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="N90" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="O90" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="O90" s="4" t="s">
+      <c r="P90" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="P90" s="4" t="s">
+      <c r="Q90" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="Q90" s="4" t="s">
+      <c r="R90" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="R90" s="4" t="s">
+      <c r="S90" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="S90" s="4" t="s">
+      <c r="T90" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="T90" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
@@ -7015,28 +7004,28 @@
       <c r="L91" s="1" t="n">
         <v>621.381531</v>
       </c>
-      <c r="M91" s="4" t="n">
+      <c r="M91" s="2" t="n">
         <v>620.11274</v>
       </c>
-      <c r="N91" s="4" t="n">
+      <c r="N91" s="2" t="n">
         <v>620.11297</v>
       </c>
-      <c r="O91" s="4" t="n">
+      <c r="O91" s="2" t="n">
         <v>620.11299</v>
       </c>
-      <c r="P91" s="4" t="n">
+      <c r="P91" s="2" t="n">
         <v>620.11797</v>
       </c>
-      <c r="Q91" s="4" t="n">
+      <c r="Q91" s="2" t="n">
         <v>620.1186</v>
       </c>
-      <c r="R91" s="4" t="n">
+      <c r="R91" s="2" t="n">
         <v>620.136</v>
       </c>
-      <c r="S91" s="4" t="n">
+      <c r="S91" s="2" t="n">
         <v>620.14</v>
       </c>
-      <c r="T91" s="4" t="n">
+      <c r="T91" s="2" t="n">
         <v>620.1446</v>
       </c>
       <c r="Y91" s="1"/>
@@ -7045,64 +7034,64 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="O92" s="4" t="s">
+      <c r="P92" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="Q92" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="Q92" s="4" t="s">
+      <c r="R92" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="R92" s="4" t="s">
+      <c r="S92" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="S92" s="4" t="s">
+      <c r="T92" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="T92" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
@@ -7110,10 +7099,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>621.3815</v>
@@ -7137,7 +7126,7 @@
         <v>621.381045</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K93" s="1" t="n">
         <v>621.381</v>
@@ -7145,28 +7134,28 @@
       <c r="L93" s="1" t="n">
         <v>621.381</v>
       </c>
-      <c r="M93" s="4" t="n">
+      <c r="M93" s="2" t="n">
         <v>620.2</v>
       </c>
-      <c r="N93" s="4" t="n">
+      <c r="N93" s="2" t="n">
         <v>620.1923</v>
       </c>
-      <c r="O93" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q93" s="4" t="n">
+      <c r="O93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q93" s="2" t="n">
         <v>620.192</v>
       </c>
-      <c r="R93" s="4" t="n">
+      <c r="R93" s="2" t="n">
         <v>620.192</v>
       </c>
-      <c r="S93" s="4" t="n">
+      <c r="S93" s="2" t="n">
         <v>620.17</v>
       </c>
-      <c r="T93" s="4" t="n">
+      <c r="T93" s="2" t="n">
         <v>620.16</v>
       </c>
       <c r="Y93" s="1"/>
@@ -7175,64 +7164,64 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="N94" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="O94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q94" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="O94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q94" s="4" t="s">
+      <c r="R94" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="R94" s="4" t="s">
+      <c r="S94" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="S94" s="4" t="s">
+      <c r="T94" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="T94" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
@@ -7240,10 +7229,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>621.38</v>
@@ -7267,7 +7256,7 @@
         <v>621.381</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K95" s="1" t="n">
         <v>621.381</v>
@@ -7275,28 +7264,28 @@
       <c r="L95" s="1" t="n">
         <v>621.381</v>
       </c>
-      <c r="M95" s="4" t="n">
+      <c r="M95" s="2" t="n">
         <v>620.25</v>
       </c>
-      <c r="N95" s="4" t="n">
+      <c r="N95" s="2" t="n">
         <v>620.3</v>
       </c>
-      <c r="O95" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q95" s="4" t="n">
+      <c r="O95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q95" s="2" t="n">
         <v>620.43</v>
       </c>
-      <c r="R95" s="4" t="n">
+      <c r="R95" s="2" t="n">
         <v>620.43</v>
       </c>
-      <c r="S95" s="4" t="n">
+      <c r="S95" s="2" t="n">
         <v>620.5</v>
       </c>
-      <c r="T95" s="4" t="n">
+      <c r="T95" s="2" t="n">
         <v>620.5</v>
       </c>
       <c r="Y95" s="1"/>
@@ -7305,64 +7294,64 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="N96" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="O96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q96" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="O96" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q96" s="4" t="s">
+      <c r="R96" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="R96" s="4" t="s">
+      <c r="S96" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="S96" s="4" t="s">
+      <c r="T96" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="T96" s="4" t="s">
-        <v>642</v>
       </c>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
@@ -7405,28 +7394,28 @@
       <c r="L97" s="1" t="n">
         <v>621.34</v>
       </c>
-      <c r="M97" s="4" t="n">
+      <c r="M97" s="2" t="n">
         <v>621.3</v>
       </c>
-      <c r="N97" s="4" t="n">
+      <c r="N97" s="2" t="n">
         <v>621.199</v>
       </c>
-      <c r="O97" s="4" t="n">
+      <c r="O97" s="2" t="n">
         <v>621.044</v>
       </c>
-      <c r="P97" s="4" t="n">
+      <c r="P97" s="2" t="n">
         <v>621.042</v>
       </c>
-      <c r="Q97" s="4" t="n">
+      <c r="Q97" s="2" t="n">
         <v>621</v>
       </c>
-      <c r="R97" s="4" t="n">
+      <c r="R97" s="2" t="n">
         <v>620.82</v>
       </c>
-      <c r="S97" s="4" t="n">
+      <c r="S97" s="2" t="n">
         <v>620.82</v>
       </c>
-      <c r="T97" s="4" t="n">
+      <c r="T97" s="2" t="n">
         <v>620.7</v>
       </c>
       <c r="Y97" s="1"/>
@@ -7435,64 +7424,64 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="N98" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="O98" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="O98" s="4" t="s">
+      <c r="P98" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="Q98" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="Q98" s="4" t="s">
+      <c r="R98" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="R98" s="4" t="s">
+      <c r="S98" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="S98" s="4" t="s">
+      <c r="T98" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="T98" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
@@ -7535,28 +7524,28 @@
       <c r="L99" s="1" t="n">
         <v>621.31934</v>
       </c>
-      <c r="M99" s="4" t="n">
+      <c r="M99" s="2" t="n">
         <v>621.3</v>
       </c>
-      <c r="N99" s="4" t="n">
+      <c r="N99" s="2" t="n">
         <v>621.3</v>
       </c>
-      <c r="O99" s="4" t="n">
+      <c r="O99" s="2" t="n">
         <v>621.30151</v>
       </c>
-      <c r="P99" s="4" t="n">
+      <c r="P99" s="2" t="n">
         <v>621.3076</v>
       </c>
-      <c r="Q99" s="4" t="n">
+      <c r="Q99" s="2" t="n">
         <v>621.308</v>
       </c>
-      <c r="R99" s="4" t="n">
+      <c r="R99" s="2" t="n">
         <v>621.308</v>
       </c>
-      <c r="S99" s="4" t="n">
+      <c r="S99" s="2" t="n">
         <v>621.30951</v>
       </c>
-      <c r="T99" s="4" t="n">
+      <c r="T99" s="2" t="n">
         <v>621.31</v>
       </c>
       <c r="Y99" s="1"/>
@@ -7565,64 +7554,64 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="L100" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M100" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="L100" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="M100" s="4" t="s">
+      <c r="N100" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="O100" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="O100" s="4" t="s">
+      <c r="P100" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="Q100" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="Q100" s="4" t="s">
+      <c r="R100" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="S100" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="R100" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="S100" s="4" t="s">
+      <c r="T100" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="T100" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
@@ -7637,56 +7626,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.6137339055794"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.6137339055794"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/static/5자료실.xlsx
+++ b/static/5자료실.xlsx
@@ -2175,7 +2175,7 @@
   <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
+      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2516,7 +2516,7 @@
         <v>668.9</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>68.9</v>
+        <v>668.9</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>669</v>
@@ -4761,7 +4761,7 @@
         <v>646.3</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>464.01</v>
+        <v>646.01</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>643</v>
@@ -5058,7 +5058,7 @@
         <v>631.4951</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>531.53</v>
+        <v>631.53</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>631.7</v>

--- a/static/5자료실.xlsx
+++ b/static/5자료실.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="517" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="557" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -155,7 +155,7 @@
     <t>Sh59t</t>
   </si>
   <si>
-    <t>J567c</t>
+    <t>P833pKg</t>
   </si>
   <si>
     <t>Sw65s2</t>
@@ -296,7 +296,7 @@
     <t>F689e2</t>
   </si>
   <si>
-    <t>Ae83a</t>
+    <t>K554c</t>
   </si>
   <si>
     <t>R66i</t>
@@ -1130,7 +1130,7 @@
     <t>Y86s</t>
   </si>
   <si>
-    <t>K593f3</t>
+    <t>K159l</t>
   </si>
   <si>
     <t>Y67b</t>
@@ -1187,7 +1187,7 @@
     <t>H1933t</t>
   </si>
   <si>
-    <t>M687a</t>
+    <t>J885m</t>
   </si>
   <si>
     <t>G352s</t>
@@ -1637,7 +1637,7 @@
     <t>L465e4Ky</t>
   </si>
   <si>
-    <t>G419r</t>
+    <t>G154v</t>
   </si>
   <si>
     <t>Sca76v</t>
@@ -2174,8 +2174,8 @@
   </sheetPr>
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2534,7 +2534,7 @@
         <v>669.94</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>667.3</v>
+        <v>669.94</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2923,7 +2923,7 @@
         <v>660.28</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>660.281</v>
+        <v>660.28073</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>660.2815</v>
